--- a/ds/turmas/2DES_A/frequencia-3-A.xlsx
+++ b/ds/turmas/2DES_A/frequencia-3-A.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713477F2-DE48-4990-896E-42AD146FE830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCEA2A-31BE-44D0-9E77-54FCD76A2C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
     <sheet name="alunos" sheetId="2" r:id="rId2"/>
+    <sheet name="vistos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -146,6 +147,21 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>PPM1</t>
+  </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>Vistos</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -222,17 +238,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -525,7 +531,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,6 +2032,9 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -3438,15 +3447,14 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,4 +3614,289 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4775B77-1C5A-4CFC-B6A0-BD404AF384A2}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>alunos!B2</f>
+        <v>Beatriz Albuquerque Marcondes Dos Santos</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>alunos!B3</f>
+        <v>Clara Andrzejewky Antonacci</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>alunos!B4</f>
+        <v>Elisa Marielle de Oliveira Carvalho</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>alunos!B5</f>
+        <v>Francisco de Paulo Saouza</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>alunos!B6</f>
+        <v>Gabriela Caroline da Silva</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>alunos!B7</f>
+        <v>Giovana Corrêa</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>alunos!B8</f>
+        <v>Ítalo Mozer de Souza</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>alunos!B9</f>
+        <v>João Vitor Franco Tandello</v>
+      </c>
+      <c r="K10">
+        <v>130</v>
+      </c>
+      <c r="L10">
+        <v>1.9</v>
+      </c>
+      <c r="M10">
+        <f>K10/(L10*L10)</f>
+        <v>36.011080332409975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>alunos!B10</f>
+        <v>Júlia Gabrielly da Silva Gonzaga</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>alunos!B11</f>
+        <v>Julia Novo de Souza</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>alunos!B12</f>
+        <v>Juliano Rafael Brolezzi Moraes</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>alunos!B13</f>
+        <v>Kaique Gonçanvel Pavan</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>alunos!B14</f>
+        <v>Leandro Saltorato Júnior</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>alunos!B15</f>
+        <v>Letícia Corrêa da Silva</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>alunos!B16</f>
+        <v>Luís Henrique Preira da Silva</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>alunos!B17</f>
+        <v>Luís Otávio Scorcer da Silva</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>alunos!B18</f>
+        <v>Luiza Amaral Corazin</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>alunos!B19</f>
+        <v>Maria Fernanda Moraes de Oliveira</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>alunos!B20</f>
+        <v>Mariana Costa de Carvalho</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>alunos!B21</f>
+        <v>Marina Defendi</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>alunos!B22</f>
+        <v>Matheus Henrique Salles Spineli</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>alunos!B23</f>
+        <v>Miguel Araujo Gerbi</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>alunos!B24</f>
+        <v>Mirella Sampaio Vicente</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>alunos!B25</f>
+        <v>Murilo Jordan Cezar</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>alunos!B26</f>
+        <v>Otávio Moreira Benedeti</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>alunos!B27</f>
+        <v>Pietra Vitória Fernandes Lopes</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>alunos!B28</f>
+        <v>Sayury de Moraes Araujo</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>alunos!B29</f>
+        <v>Tamires Guarizzo</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>alunos!B30</f>
+        <v>Vicenzo Vieira Varandas</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/ds/turmas/2DES_A/frequencia-3-A.xlsx
+++ b/ds/turmas/2DES_A/frequencia-3-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCEA2A-31BE-44D0-9E77-54FCD76A2C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4ED0B-5069-403D-9F38-37B3BE0FB9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>P/5</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,9 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -654,6 +659,27 @@
       <c r="E2" s="1">
         <v>46052</v>
       </c>
+      <c r="F2" s="1">
+        <v>46057</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -714,6 +740,9 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="2"/>
@@ -810,6 +839,9 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -904,6 +936,9 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -998,6 +1033,9 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1092,6 +1130,9 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1186,6 +1227,9 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1280,6 +1324,9 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1374,6 +1421,9 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1468,6 +1518,9 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1562,6 +1615,9 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1656,6 +1712,9 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1750,6 +1809,9 @@
       <c r="E14" t="s">
         <v>34</v>
       </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1844,6 +1906,9 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1938,6 +2003,9 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2032,6 +2100,9 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" t="s">
         <v>40</v>
       </c>
@@ -2129,6 +2200,9 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2223,6 +2297,9 @@
       <c r="E19" t="s">
         <v>34</v>
       </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2317,6 +2394,9 @@
       <c r="E20" t="s">
         <v>34</v>
       </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2411,6 +2491,9 @@
       <c r="E21" t="s">
         <v>34</v>
       </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2505,6 +2588,9 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2599,6 +2685,9 @@
       <c r="E23" t="s">
         <v>34</v>
       </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2693,6 +2782,9 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2787,6 +2879,9 @@
       <c r="E25" t="s">
         <v>34</v>
       </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2881,6 +2976,9 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -2975,6 +3073,9 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3069,6 +3170,9 @@
       <c r="E28" t="s">
         <v>34</v>
       </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3163,6 +3267,9 @@
       <c r="E29" t="s">
         <v>34</v>
       </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3257,6 +3364,9 @@
       <c r="E30" t="s">
         <v>34</v>
       </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3351,6 +3461,9 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>

--- a/ds/turmas/2DES_A/frequencia-3-A.xlsx
+++ b/ds/turmas/2DES_A/frequencia-3-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4ED0B-5069-403D-9F38-37B3BE0FB9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F070DD95-76B4-4FF3-AB9E-13D4A936C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -531,23 +531,23 @@
   <dimension ref="A1:DS31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="50" width="7.7109375" customWidth="1"/>
-    <col min="51" max="51" width="7.7109375" style="5" customWidth="1"/>
-    <col min="52" max="106" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="50" width="7.6640625" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" style="5" customWidth="1"/>
+    <col min="52" max="106" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
@@ -557,8 +557,12 @@
       <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -643,7 +647,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -662,8 +666,12 @@
       <c r="F2" s="1">
         <v>46057</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>46059</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46064</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -724,7 +732,7 @@
       <c r="CL2" s="5"/>
       <c r="CM2" s="5"/>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>alunos!A2</f>
         <v>0</v>
@@ -743,6 +751,12 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="2"/>
@@ -821,7 +835,7 @@
       <c r="DR3" s="5"/>
       <c r="DS3" s="5"/>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>alunos!A3</f>
         <v>0</v>
@@ -840,6 +854,12 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
       <c r="AU4" s="2"/>
@@ -918,7 +938,7 @@
       <c r="DR4" s="5"/>
       <c r="DS4" s="5"/>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>alunos!A4</f>
         <v>0</v>
@@ -937,6 +957,12 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="AU5" s="2"/>
@@ -1015,7 +1041,7 @@
       <c r="DR5" s="5"/>
       <c r="DS5" s="5"/>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>alunos!A5</f>
         <v>0</v>
@@ -1034,6 +1060,12 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
       </c>
       <c r="AU6" s="2"/>
@@ -1112,7 +1144,7 @@
       <c r="DR6" s="5"/>
       <c r="DS6" s="5"/>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>alunos!A6</f>
         <v>0</v>
@@ -1131,6 +1163,12 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>34</v>
       </c>
       <c r="AU7" s="2"/>
@@ -1209,7 +1247,7 @@
       <c r="DR7" s="5"/>
       <c r="DS7" s="5"/>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>alunos!A7</f>
         <v>0</v>
@@ -1228,6 +1266,12 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="AU8" s="2"/>
@@ -1306,7 +1350,7 @@
       <c r="DR8" s="5"/>
       <c r="DS8" s="5"/>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>alunos!A8</f>
         <v>0</v>
@@ -1326,6 +1370,12 @@
       </c>
       <c r="F9" t="s">
         <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -1403,7 +1453,7 @@
       <c r="DR9" s="5"/>
       <c r="DS9" s="5"/>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>alunos!A9</f>
         <v>0</v>
@@ -1422,6 +1472,12 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>34</v>
       </c>
       <c r="AU10" s="2"/>
@@ -1500,7 +1556,7 @@
       <c r="DR10" s="5"/>
       <c r="DS10" s="5"/>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>alunos!A10</f>
         <v>0</v>
@@ -1519,6 +1575,12 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
         <v>34</v>
       </c>
       <c r="AU11" s="2"/>
@@ -1597,7 +1659,7 @@
       <c r="DR11" s="5"/>
       <c r="DS11" s="5"/>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>alunos!A11</f>
         <v>0</v>
@@ -1616,6 +1678,12 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
       <c r="AU12" s="2"/>
@@ -1694,7 +1762,7 @@
       <c r="DR12" s="5"/>
       <c r="DS12" s="5"/>
     </row>
-    <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>alunos!A12</f>
         <v>0</v>
@@ -1713,6 +1781,12 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
         <v>34</v>
       </c>
       <c r="AU13" s="2"/>
@@ -1791,7 +1865,7 @@
       <c r="DR13" s="5"/>
       <c r="DS13" s="5"/>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>alunos!A13</f>
         <v>0</v>
@@ -1810,6 +1884,12 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
       <c r="AU14" s="2"/>
@@ -1888,7 +1968,7 @@
       <c r="DR14" s="5"/>
       <c r="DS14" s="5"/>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>alunos!A14</f>
         <v>0</v>
@@ -1907,6 +1987,12 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>34</v>
       </c>
       <c r="AU15" s="2"/>
@@ -1985,7 +2071,7 @@
       <c r="DR15" s="5"/>
       <c r="DS15" s="5"/>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>alunos!A15</f>
         <v>0</v>
@@ -2004,6 +2090,12 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
         <v>34</v>
       </c>
       <c r="AU16" s="2"/>
@@ -2082,7 +2174,7 @@
       <c r="DR16" s="5"/>
       <c r="DS16" s="5"/>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>alunos!A16</f>
         <v>0</v>
@@ -2101,6 +2193,12 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
         <v>34</v>
       </c>
       <c r="I17" t="s">
@@ -2182,7 +2280,7 @@
       <c r="DR17" s="5"/>
       <c r="DS17" s="5"/>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>alunos!A17</f>
         <v>0</v>
@@ -2201,6 +2299,12 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>34</v>
       </c>
       <c r="AU18" s="2"/>
@@ -2279,7 +2383,7 @@
       <c r="DR18" s="5"/>
       <c r="DS18" s="5"/>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>alunos!A18</f>
         <v>0</v>
@@ -2298,6 +2402,12 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="AU19" s="2"/>
@@ -2376,7 +2486,7 @@
       <c r="DR19" s="5"/>
       <c r="DS19" s="5"/>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>alunos!A19</f>
         <v>0</v>
@@ -2395,6 +2505,12 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
         <v>34</v>
       </c>
       <c r="AU20" s="2"/>
@@ -2473,7 +2589,7 @@
       <c r="DR20" s="5"/>
       <c r="DS20" s="5"/>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>alunos!A20</f>
         <v>0</v>
@@ -2492,6 +2608,12 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
         <v>34</v>
       </c>
       <c r="AU21" s="2"/>
@@ -2570,7 +2692,7 @@
       <c r="DR21" s="5"/>
       <c r="DS21" s="5"/>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>alunos!A21</f>
         <v>0</v>
@@ -2589,6 +2711,12 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
         <v>34</v>
       </c>
       <c r="AU22" s="2"/>
@@ -2667,7 +2795,7 @@
       <c r="DR22" s="5"/>
       <c r="DS22" s="5"/>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>alunos!A22</f>
         <v>0</v>
@@ -2686,6 +2814,12 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
         <v>34</v>
       </c>
       <c r="AU23" s="2"/>
@@ -2764,7 +2898,7 @@
       <c r="DR23" s="5"/>
       <c r="DS23" s="5"/>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>alunos!A23</f>
         <v>0</v>
@@ -2783,6 +2917,12 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
         <v>34</v>
       </c>
       <c r="AU24" s="2"/>
@@ -2861,7 +3001,7 @@
       <c r="DR24" s="5"/>
       <c r="DS24" s="5"/>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>alunos!A24</f>
         <v>0</v>
@@ -2880,6 +3020,12 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
         <v>34</v>
       </c>
       <c r="AU25" s="2"/>
@@ -2958,7 +3104,7 @@
       <c r="DR25" s="5"/>
       <c r="DS25" s="5"/>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>alunos!A25</f>
         <v>0</v>
@@ -2977,6 +3123,12 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
         <v>34</v>
       </c>
       <c r="AU26" s="2"/>
@@ -3055,7 +3207,7 @@
       <c r="DR26" s="5"/>
       <c r="DS26" s="5"/>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>alunos!A26</f>
         <v>0</v>
@@ -3074,6 +3226,12 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
         <v>34</v>
       </c>
       <c r="AU27" s="2"/>
@@ -3152,7 +3310,7 @@
       <c r="DR27" s="5"/>
       <c r="DS27" s="5"/>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>alunos!A27</f>
         <v>0</v>
@@ -3171,6 +3329,12 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="AU28" s="2"/>
@@ -3249,7 +3413,7 @@
       <c r="DR28" s="5"/>
       <c r="DS28" s="5"/>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>alunos!A28</f>
         <v>0</v>
@@ -3268,6 +3432,12 @@
         <v>34</v>
       </c>
       <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
         <v>34</v>
       </c>
       <c r="AU29" s="2"/>
@@ -3346,7 +3516,7 @@
       <c r="DR29" s="5"/>
       <c r="DS29" s="5"/>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>alunos!A29</f>
         <v>0</v>
@@ -3365,6 +3535,12 @@
         <v>34</v>
       </c>
       <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
         <v>34</v>
       </c>
       <c r="AU30" s="2"/>
@@ -3443,7 +3619,7 @@
       <c r="DR30" s="5"/>
       <c r="DS30" s="5"/>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>alunos!A30</f>
         <v>0</v>
@@ -3462,6 +3638,12 @@
         <v>34</v>
       </c>
       <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
         <v>34</v>
       </c>
       <c r="AU31" s="2"/>
@@ -3563,14 +3745,14 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3578,147 +3760,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -3737,18 +3919,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3756,7 +3938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>alunos!B2</f>
         <v>Beatriz Albuquerque Marcondes Dos Santos</v>
@@ -3765,7 +3947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>alunos!B3</f>
         <v>Clara Andrzejewky Antonacci</v>
@@ -3774,7 +3956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>alunos!B4</f>
         <v>Elisa Marielle de Oliveira Carvalho</v>
@@ -3783,7 +3965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>alunos!B5</f>
         <v>Francisco de Paulo Saouza</v>
@@ -3792,13 +3974,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>alunos!B6</f>
         <v>Gabriela Caroline da Silva</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>alunos!B7</f>
         <v>Giovana Corrêa</v>
@@ -3807,7 +3989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>alunos!B8</f>
         <v>Ítalo Mozer de Souza</v>
@@ -3816,7 +3998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>alunos!B9</f>
         <v>João Vitor Franco Tandello</v>
@@ -3832,13 +4014,13 @@
         <v>36.011080332409975</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>alunos!B10</f>
         <v>Júlia Gabrielly da Silva Gonzaga</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>alunos!B11</f>
         <v>Julia Novo de Souza</v>
@@ -3847,7 +4029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>alunos!B12</f>
         <v>Juliano Rafael Brolezzi Moraes</v>
@@ -3856,7 +4038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>alunos!B13</f>
         <v>Kaique Gonçanvel Pavan</v>
@@ -3865,7 +4047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>alunos!B14</f>
         <v>Leandro Saltorato Júnior</v>
@@ -3874,7 +4056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>alunos!B15</f>
         <v>Letícia Corrêa da Silva</v>
@@ -3883,7 +4065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>alunos!B16</f>
         <v>Luís Henrique Preira da Silva</v>
@@ -3892,7 +4074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>alunos!B17</f>
         <v>Luís Otávio Scorcer da Silva</v>
@@ -3901,7 +4083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>alunos!B18</f>
         <v>Luiza Amaral Corazin</v>
@@ -3910,7 +4092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>alunos!B19</f>
         <v>Maria Fernanda Moraes de Oliveira</v>
@@ -3919,7 +4101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>alunos!B20</f>
         <v>Mariana Costa de Carvalho</v>
@@ -3928,7 +4110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>alunos!B21</f>
         <v>Marina Defendi</v>
@@ -3937,7 +4119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>alunos!B22</f>
         <v>Matheus Henrique Salles Spineli</v>
@@ -3946,7 +4128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>alunos!B23</f>
         <v>Miguel Araujo Gerbi</v>
@@ -3955,25 +4137,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>alunos!B24</f>
         <v>Mirella Sampaio Vicente</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>alunos!B25</f>
         <v>Murilo Jordan Cezar</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>alunos!B26</f>
         <v>Otávio Moreira Benedeti</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>alunos!B27</f>
         <v>Pietra Vitória Fernandes Lopes</v>
@@ -3982,7 +4164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>alunos!B28</f>
         <v>Sayury de Moraes Araujo</v>
@@ -3991,7 +4173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>alunos!B29</f>
         <v>Tamires Guarizzo</v>
@@ -4000,7 +4182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>alunos!B30</f>
         <v>Vicenzo Vieira Varandas</v>

--- a/ds/turmas/2DES_A/frequencia-3-A.xlsx
+++ b/ds/turmas/2DES_A/frequencia-3-A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F070DD95-76B4-4FF3-AB9E-13D4A936C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA159FCE-4BAB-4B44-A040-DEB829F729C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>P/5</t>
@@ -531,10 +525,10 @@
   <dimension ref="A1:DS31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +557,9 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -672,7 +668,9 @@
       <c r="H2" s="1">
         <v>46064</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>46073</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -757,6 +755,9 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="2"/>
@@ -862,6 +863,9 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -965,6 +969,9 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1068,6 +1075,9 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1171,6 +1181,9 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1274,6 +1287,9 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1369,12 +1385,15 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="AU9" s="2"/>
@@ -1480,6 +1499,9 @@
       <c r="H10" t="s">
         <v>34</v>
       </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1583,6 +1605,9 @@
       <c r="H11" t="s">
         <v>34</v>
       </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1686,6 +1711,9 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1789,6 +1817,9 @@
       <c r="H13" t="s">
         <v>34</v>
       </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1892,6 +1923,9 @@
       <c r="H14" t="s">
         <v>34</v>
       </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1995,6 +2029,9 @@
       <c r="H15" t="s">
         <v>34</v>
       </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2098,6 +2135,9 @@
       <c r="H16" t="s">
         <v>34</v>
       </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2202,7 +2242,7 @@
         <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
@@ -2307,6 +2347,9 @@
       <c r="H18" t="s">
         <v>34</v>
       </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2410,6 +2453,9 @@
       <c r="H19" t="s">
         <v>34</v>
       </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2513,6 +2559,9 @@
       <c r="H20" t="s">
         <v>34</v>
       </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2616,6 +2665,9 @@
       <c r="H21" t="s">
         <v>34</v>
       </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2719,6 +2771,9 @@
       <c r="H22" t="s">
         <v>34</v>
       </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2822,6 +2877,9 @@
       <c r="H23" t="s">
         <v>34</v>
       </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2925,6 +2983,9 @@
       <c r="H24" t="s">
         <v>34</v>
       </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3028,6 +3089,9 @@
       <c r="H25" t="s">
         <v>34</v>
       </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3131,6 +3195,9 @@
       <c r="H26" t="s">
         <v>34</v>
       </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3234,6 +3301,9 @@
       <c r="H27" t="s">
         <v>34</v>
       </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3337,6 +3407,9 @@
       <c r="H28" t="s">
         <v>34</v>
       </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3440,6 +3513,9 @@
       <c r="H29" t="s">
         <v>34</v>
       </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3543,6 +3619,9 @@
       <c r="H30" t="s">
         <v>34</v>
       </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3646,6 +3725,9 @@
       <c r="H31" t="s">
         <v>34</v>
       </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>

--- a/ds/turmas/2DES_A/frequencia-3-A.xlsx
+++ b/ds/turmas/2DES_A/frequencia-3-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA159FCE-4BAB-4B44-A040-DEB829F729C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF7FF2-7E97-4E10-9069-3E266E249524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -528,7 +528,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,9 @@
       <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -671,7 +673,9 @@
       <c r="I2" s="1">
         <v>46073</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>46078</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -758,6 +762,9 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="2"/>
@@ -866,6 +873,9 @@
       <c r="I4" t="s">
         <v>34</v>
       </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -972,6 +982,9 @@
       <c r="I5" t="s">
         <v>34</v>
       </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1078,6 +1091,9 @@
       <c r="I6" t="s">
         <v>34</v>
       </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1184,6 +1200,9 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1290,6 +1309,9 @@
       <c r="I8" t="s">
         <v>34</v>
       </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1396,6 +1418,9 @@
       <c r="I9" t="s">
         <v>34</v>
       </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1502,6 +1527,9 @@
       <c r="I10" t="s">
         <v>34</v>
       </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1608,6 +1636,9 @@
       <c r="I11" t="s">
         <v>34</v>
       </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1714,6 +1745,9 @@
       <c r="I12" t="s">
         <v>34</v>
       </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1820,6 +1854,9 @@
       <c r="I13" t="s">
         <v>34</v>
       </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1926,6 +1963,9 @@
       <c r="I14" t="s">
         <v>35</v>
       </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2032,6 +2072,9 @@
       <c r="I15" t="s">
         <v>34</v>
       </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2138,6 +2181,9 @@
       <c r="I16" t="s">
         <v>34</v>
       </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2244,6 +2290,9 @@
       <c r="I17" t="s">
         <v>34</v>
       </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2350,6 +2399,9 @@
       <c r="I18" t="s">
         <v>34</v>
       </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2456,6 +2508,9 @@
       <c r="I19" t="s">
         <v>34</v>
       </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2562,6 +2617,9 @@
       <c r="I20" t="s">
         <v>34</v>
       </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2668,6 +2726,9 @@
       <c r="I21" t="s">
         <v>34</v>
       </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2774,6 +2835,9 @@
       <c r="I22" t="s">
         <v>34</v>
       </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2880,6 +2944,9 @@
       <c r="I23" t="s">
         <v>34</v>
       </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2986,6 +3053,9 @@
       <c r="I24" t="s">
         <v>34</v>
       </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3092,6 +3162,9 @@
       <c r="I25" t="s">
         <v>34</v>
       </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3198,6 +3271,9 @@
       <c r="I26" t="s">
         <v>34</v>
       </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3304,6 +3380,9 @@
       <c r="I27" t="s">
         <v>34</v>
       </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3410,6 +3489,9 @@
       <c r="I28" t="s">
         <v>34</v>
       </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3516,6 +3598,9 @@
       <c r="I29" t="s">
         <v>34</v>
       </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3622,6 +3707,9 @@
       <c r="I30" t="s">
         <v>34</v>
       </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3728,6 +3816,9 @@
       <c r="I31" t="s">
         <v>34</v>
       </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
